--- a/ABC1.xlsx
+++ b/ABC1.xlsx
@@ -773,142 +773,142 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>Test Case Module</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>Date and Time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2022-07-11 20:43:44.094964</t>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>2022-07-12 21:11:58.251721</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>Add New</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>Issue Subject</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>Issue Category - Design</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>Website Feature - Certificate</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>Uploading Attachment gets Fail</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>Submit</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>OK Button</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>Logout</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/ABC1.xlsx
+++ b/ABC1.xlsx
@@ -11,6 +11,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non-Contest Event" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LoginMFA" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Bug" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contest Event" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -19,7 +24,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Arial"/>
@@ -69,8 +76,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -506,16 +516,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>2022-07-11 20:39:53.716162</t>
-        </is>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.com</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>44754.89834638889</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Uploading Banner Image</t>
+          <t>Certifications</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
@@ -749,7 +777,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>2022-07-11 20:36:25.454789</t>
+          <t>2022-07-12 21:40:11.772880</t>
         </is>
       </c>
     </row>
@@ -917,4 +945,237 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>2022-07-12 22:44:12.171456</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Uploading Banner Image</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Upload Listing Image</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description </t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Event Type - Contest Event</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Event Type - Contest Event</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ABC1.xlsx
+++ b/ABC1.xlsx
@@ -7,15 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non-Contest Event" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LoginMFA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Bug" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Certifications3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contest Event" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Non-Contest Event" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LoginMFA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Bug" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contest Event" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Polling Event" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -25,11 +21,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -76,7 +73,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -452,498 +459,723 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Test Case Module</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>aman.bhatia@geminisolutions.com</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>RitaNandini96</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>login Success</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>44754.89834638889</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Certifications</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Upload Listing Image</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Event Type - Non-Contest Event</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reward </t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="3">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participant Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="3">
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Eligible Participant - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="3">
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Submit </t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="3">
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Test Case Module</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Date and Time</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>aman.bhatia@geminisolutions.com</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>RitaNandini96</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Login</t>
         </is>
       </c>
-      <c r="G2" s="0" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>login Success</t>
         </is>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>44754.89834638889</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Certifications</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Upload Listing Image</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>Event Name</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description </t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Next Button </t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Event Type - Non-Contest Event</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reward </t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Next Button </t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Participant Category - Individual Participants </t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>Eligible Participant - Aman Bhatia, Alpana Upadhyay</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Submit </t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>OK Button</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>2022-07-12 21:40:11.772880</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Test Case Module</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Date and Time</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>aman.bhatia@geminisolutions.com</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>RitaNandini96</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>login Success</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>2022-07-12 21:40:11.772880</t>
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>2022-07-13 11:36:11.681273</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Add New</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Issue Subject</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Issue Category - Design</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Website Feature - Certificate</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Uploading Attachment gets Fail</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="3">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Logout</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Test Case Module</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Date and Time</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>2022-07-12 21:11:58.251721</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Add New</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Issue Subject</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>Issue Category - Design</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Website Feature - Certificate</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Uploading Attachment gets Fail</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Submit</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="0" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>2022-07-13 11:24:15.443030</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Uploading Banner Image</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Upload Listing Image</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Event Type - Contest Event</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Contribution Category - Certificate and Client Feedback</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reward </t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="3">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="3">
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participant Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="3">
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Eligible Participant - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="3">
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cutoff Points </t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="3">
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Submit </t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="3">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>OK Button</t>
         </is>
       </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>Logout</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -953,79 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,144 +1194,240 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Test Case Module</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Date and Time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>2022-07-12 22:44:12.171456</t>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>2022-07-13 11:31:29.572750</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="0" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Uploading Banner Image</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Upload Listing Image</t>
         </is>
       </c>
-      <c r="G4" s="0" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Event Name</t>
         </is>
       </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="0" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Description </t>
         </is>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Next Button </t>
         </is>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Event Type - Contest Event</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Event Type - Polling Event</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Event Type - Contest Event</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reward </t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voters Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Eligible Voters - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Next Button </t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participant Category - Individual Participants </t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Eligible Participant - Aman Bhatia, Alpana Upadhyay</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Submit </t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>OK Button</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
